--- a/StructureDefinition-Parameter1.xlsx
+++ b/StructureDefinition-Parameter1.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>[Profile] - parameter1</t>
+    <t>[Profile] - Machine Learning Parameters</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:58:53+00:00</t>
+    <t>2022-04-20T08:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
